--- a/xlsx/美国领土扩张_intext.xlsx
+++ b/xlsx/美国领土扩张_intext.xlsx
@@ -15,863 +15,857 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="319">
   <si>
     <t>美国领土扩张</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E6%93%B4%E5%BC%B5</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国领土扩张</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%89%B9%E5%8D%80</t>
+  </si>
+  <si>
+    <t>华盛顿特区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>阿拉斯加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7</t>
+  </si>
+  <si>
+    <t>夏威夷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
+  </si>
+  <si>
+    <t>波多黎各</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E7%AB%8B%E5%9B%BD%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>独立国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E4%BA%BA%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>无人岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>领地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%88%B0%E7%95%A5</t>
+  </si>
+  <si>
+    <t>军事战略</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E7%89%A9%E6%96%99</t>
+  </si>
+  <si>
+    <t>原物料</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E6%A0%BD%E5%9F%B9%E6%A5%AD</t>
+  </si>
+  <si>
+    <t>热带栽培业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
+  </si>
+  <si>
+    <t>美国领土变迁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%9E%E8%90%A8%E6%91%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>美属萨摩亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>关岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>威克岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>美属维尔京群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>贾维斯岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>豪兰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>贝克岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>约翰斯顿岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
+  </si>
+  <si>
+    <t>金曼礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>中途岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>纳弗沙岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A6%AC%E9%87%8C%E4%BA%9E%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>北马里亚纳群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>利比里亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
+  </si>
+  <si>
+    <t>菲律宾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
+  </si>
+  <si>
+    <t>美属菲律宾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93%E8%87%AA%E6%B2%BB%E9%A0%98</t>
+  </si>
+  <si>
+    <t>菲律宾自治领</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%AF%94%E5%85%8B%E7%81%A3</t>
+  </si>
+  <si>
+    <t>苏比克湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
+  </si>
+  <si>
+    <t>古巴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%92%8C%E7%B4%84</t>
+  </si>
+  <si>
+    <t>巴黎和约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E5%A1%94%E9%82%A3%E6%91%A9%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>关塔那摩湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
+  </si>
+  <si>
+    <t>美国军事</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A6%AC%E9%81%8B%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>巴拿马运河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>巴拿马共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
+  </si>
+  <si>
+    <t>尼加拉瓜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E6%8B%89%E5%85%8B%E9%AD%AF%E6%96%AF_(%E9%9F%8B%E6%8B%89%E5%85%8B%E9%AD%AF%E6%96%AF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>韦拉克鲁斯 (韦拉克鲁斯州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>多明尼加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>冰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E7%BE%A4%E5%B3%B6%E8%A8%97%E7%AE%A1%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>太平洋群岛讬管地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>联合国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%B4%B9%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>马绍尔群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BE%85%E5%B0%BC%E8%A5%BF%E4%BA%9E%E8%81%AF%E9%82%A6</t>
+  </si>
+  <si>
+    <t>密克罗尼西亚联邦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%9B%E7%90%89</t>
+  </si>
+  <si>
+    <t>帛琉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>大韩民国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A7%90%E6%9C%9D%E9%AE%AE%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E5%8F%B8%E4%BB%A4%E9%83%A8%E8%BB%8D%E6%94%BF%E5%BB%B3</t>
+  </si>
+  <si>
+    <t>驻朝鲜美国陆军司令部军政厅</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
+  </si>
+  <si>
+    <t>奥地利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>琉球群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>日本国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%91%9E%E9%82%A3%E9%81%94</t>
+  </si>
+  <si>
+    <t>格瑞那达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>巴拿马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
+  </si>
+  <si>
+    <t>伊拉克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%AE%96%E6%B0%91%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>Template talk-殖民主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>殖民主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>美国殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E5%B8%9D%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>荷兰帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%8C%88%E5%B8%9D%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>奥匈帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>大英帝国</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_possessions_of_Norway</t>
+  </si>
+  <si>
+    <t>en-List of possessions of Norway</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>比利时殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E6%AE%96%E6%B0%91%E5%B8%9D%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>法兰西殖民帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E5%B8%9D%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>葡萄牙帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>德国殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E5%B8%9D%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>俄罗斯帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E5%B0%94%E5%85%B0%E7%9A%84%E7%BE%8E%E6%B4%B2%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>库尔兰的美洲殖民地</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/History_of_Malta_under_the_Order_of_Saint_John</t>
+  </si>
+  <si>
+    <t>en-History of Malta under the Order of Saint John</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%B8%9D%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>西班牙帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>丹麦殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>意大利殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>瑞典殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E4%BB%A3%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>古代殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
+  </si>
+  <si>
+    <t>美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>亚拉巴马州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>亚利桑那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>阿肯色州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加利福尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>科罗拉多州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>康乃狄克州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>特拉华州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佛罗里达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>乔治亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>爱达荷州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>伊利诺伊州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>印第安纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%A5%E7%93%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>艾奥瓦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>堪萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>肯塔基州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>路易斯安那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>缅因州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>马里兰州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>麻萨诸塞州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密歇根州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>明尼苏达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密西西比州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密苏里州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>蒙大拿州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>内布拉斯加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>内华达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新罕布什尔州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新泽西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新墨西哥州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>纽约州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>北卡罗来纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>北达科他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>俄亥俄州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>奥克拉荷马州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>俄勒冈州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>宾夕法尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>罗德岛州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>南卡罗来纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>南达科他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>田纳西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>德克萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>犹他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佛蒙特州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>弗吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>华盛顿州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西维吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>威斯康辛州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>怀俄明州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>联邦地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>华盛顿哥伦比亚特区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>岛屿地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
+  </si>
+  <si>
+    <t>美国本土外小岛屿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
+  </si>
+  <si>
+    <t>约翰斯顿环礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
+  </si>
+  <si>
+    <t>帕迈拉环礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>纳瓦萨岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9C%8D%E5%8A%AA%E5%9F%83%E6%B2%83%E6%B5%85%E6%BB%A9</t>
+  </si>
+  <si>
+    <t>巴霍努埃沃浅滩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%B0%BC%E6%8B%89%E6%B5%85%E6%BB%A9</t>
+  </si>
+  <si>
+    <t>塞拉尼拉浅滩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BF%9D%E7%95%99%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>印第安保留地</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F%E6%89%A9%E5%BC%A0</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国领土扩张</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美国州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%89%B9%E5%8D%80</t>
-  </si>
-  <si>
-    <t>華盛頓特區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>阿拉斯加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7</t>
-  </si>
-  <si>
-    <t>夏威夷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E7%AB%8B%E5%9B%BD%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>独立国家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E4%BA%BA%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>無人島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>領地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>歐洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%88%B0%E7%95%A5</t>
-  </si>
-  <si>
-    <t>軍事戰略</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E7%89%A9%E6%96%99</t>
-  </si>
-  <si>
-    <t>原物料</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E6%A0%BD%E5%9F%B9%E6%A5%AD</t>
-  </si>
-  <si>
-    <t>熱帶栽培業</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
-  </si>
-  <si>
-    <t>美國領土變遷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%9E%E8%90%A8%E6%91%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>美属萨摩亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>關島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>威克島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>美屬維爾京群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>賈維斯島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>豪蘭島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>貝克島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>约翰斯顿岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
-  </si>
-  <si>
-    <t>金曼礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>中途島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>納弗沙島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A6%AC%E9%87%8C%E4%BA%9E%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>北馬里亞納群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>利比里亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
-  </si>
-  <si>
-    <t>菲律賓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
-  </si>
-  <si>
-    <t>美屬菲律賓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93%E8%87%AA%E6%B2%BB%E9%A0%98</t>
-  </si>
-  <si>
-    <t>菲律賓自治領</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%AF%94%E5%85%8B%E7%81%A3</t>
-  </si>
-  <si>
-    <t>蘇比克灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%92%8C%E7%B4%84</t>
-  </si>
-  <si>
-    <t>巴黎和約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E5%A1%94%E9%82%A3%E6%91%A9%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>关塔那摩湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
-  </si>
-  <si>
-    <t>美國軍事</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A6%AC%E9%81%8B%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>巴拿馬運河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>巴拿马共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E6%8B%89%E5%85%8B%E9%AD%AF%E6%96%AF_(%E9%9F%8B%E6%8B%89%E5%85%8B%E9%AD%AF%E6%96%AF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>韋拉克魯斯 (韋拉克魯斯州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>海地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>多明尼加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>冰島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E7%BE%A4%E5%B3%B6%E8%A8%97%E7%AE%A1%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>太平洋群島託管地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>聯合國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%B4%B9%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>馬紹爾群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BE%85%E5%B0%BC%E8%A5%BF%E4%BA%9E%E8%81%AF%E9%82%A6</t>
-  </si>
-  <si>
-    <t>密克羅尼西亞聯邦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%9B%E7%90%89</t>
-  </si>
-  <si>
-    <t>帛琉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>大韩民国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A7%90%E6%9C%9D%E9%AE%AE%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E5%8F%B8%E4%BB%A4%E9%83%A8%E8%BB%8D%E6%94%BF%E5%BB%B3</t>
-  </si>
-  <si>
-    <t>駐朝鮮美國陸軍司令部軍政廳</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>德國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>琉球群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>日本國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%91%9E%E9%82%A3%E9%81%94</t>
-  </si>
-  <si>
-    <t>格瑞那達</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%AE%96%E6%B0%91%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>Template talk-殖民主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>殖民主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>美國殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E5%B8%9D%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>荷蘭帝國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%8C%88%E5%B8%9D%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>奥匈帝国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>大英帝國</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_possessions_of_Norway</t>
-  </si>
-  <si>
-    <t>en-List of possessions of Norway</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>比利時殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E6%AE%96%E6%B0%91%E5%B8%9D%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>法蘭西殖民帝國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E5%B8%9D%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>葡萄牙帝國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>大英帝国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>德國殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E5%B8%9D%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>俄罗斯帝国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E5%B0%94%E5%85%B0%E7%9A%84%E7%BE%8E%E6%B4%B2%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>库尔兰的美洲殖民地</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/History_of_Malta_under_the_Order_of_Saint_John</t>
-  </si>
-  <si>
-    <t>en-History of Malta under the Order of Saint John</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%B8%9D%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>西班牙帝國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>丹麥殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>意大利殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>瑞典殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E4%BB%A3%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>古代殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
-  </si>
-  <si>
-    <t>美國行政區劃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>亚拉巴马州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>亞利桑那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>阿肯色州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>科羅拉多州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>康乃狄克州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>特拉华州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佛罗里达州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>喬治亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>爱达荷州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>伊利诺伊州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>印第安纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%A5%E7%93%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>艾奥瓦州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>堪薩斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>肯塔基州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>路易斯安那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>缅因州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>马里兰州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>麻薩諸塞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密歇根州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>明尼蘇達州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密西西比州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密蘇里州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>蒙大拿州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>內布拉斯加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>内华达州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新罕布什尔州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新泽西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新墨西哥州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>纽约州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>北卡罗来纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>北达科他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>俄亥俄州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>奧克拉荷馬州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>俄勒冈州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>宾夕法尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>羅德島州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>南卡罗来纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>南达科他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>田纳西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>德克萨斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>犹他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佛蒙特州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>弗吉尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>华盛顿州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西維吉尼亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>威斯康辛州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>怀俄明州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>聯邦地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>华盛顿哥伦比亚特区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>島嶼地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>美屬薩摩亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>北马里亚纳群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
-  </si>
-  <si>
-    <t>美国本土外小岛屿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
-  </si>
-  <si>
-    <t>约翰斯顿环礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
-  </si>
-  <si>
-    <t>帕邁拉環礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>纳瓦萨岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9C%8D%E5%8A%AA%E5%9F%83%E6%B2%83%E6%B5%85%E6%BB%A9</t>
-  </si>
-  <si>
-    <t>巴霍努埃沃浅滩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%B0%BC%E6%8B%89%E6%B5%85%E6%BB%A9</t>
-  </si>
-  <si>
-    <t>塞拉尼拉浅滩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BF%9D%E7%95%99%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>印第安保留地</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
@@ -881,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E6%A2%9D%E7%B4%84_(1783%E5%B9%B4)</t>
   </si>
   <si>
-    <t>巴黎條約 (1783年)</t>
+    <t>巴黎条约 (1783年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E8%B4%AD%E5%9C%B0</t>
@@ -899,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%E6%96%AF-%E5%A5%A7%E5%B0%BC%E6%96%AF%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>亞當斯-奧尼斯條約</t>
+    <t>亚当斯-奥尼斯条约</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Texas_annexation</t>
@@ -917,13 +911,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%89%B2%E8%AE%93%E5%9C%B0</t>
   </si>
   <si>
-    <t>墨西哥割讓地</t>
+    <t>墨西哥割让地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E8%8C%B2%E7%99%BB%E8%B3%BC%E5%9C%B0</t>
   </si>
   <si>
-    <t>蓋茲登購地</t>
+    <t>盖兹登购地</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Guano_Islands_Act</t>
@@ -947,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E6%A2%9D%E7%B4%84_(1898%E5%B9%B4)</t>
   </si>
   <si>
-    <t>巴黎條約 (1898年)</t>
+    <t>巴黎条约 (1898年)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tripartite_Convention</t>
@@ -978,15 +972,6 @@
   </si>
   <si>
     <t>昭昭天命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E6%93%B4%E5%BC%B5</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I167"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3187,7 +3172,7 @@
         <v>128</v>
       </c>
       <c r="G64" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
@@ -3416,7 +3401,7 @@
         <v>143</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3442,10 +3427,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3471,10 +3456,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3500,10 +3485,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3529,10 +3514,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3558,10 +3543,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3587,10 +3572,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3616,10 +3601,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3645,10 +3630,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3674,10 +3659,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3703,10 +3688,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3761,10 +3746,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3790,10 +3775,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3819,10 +3804,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3848,10 +3833,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3877,10 +3862,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3906,10 +3891,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3935,10 +3920,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3964,10 +3949,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -3993,10 +3978,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4022,10 +4007,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4051,10 +4036,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4080,10 +4065,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4109,10 +4094,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4138,10 +4123,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4167,10 +4152,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4196,10 +4181,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4225,10 +4210,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4254,10 +4239,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4283,10 +4268,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4312,10 +4297,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4341,10 +4326,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4370,10 +4355,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4399,10 +4384,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4428,10 +4413,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4457,10 +4442,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4486,10 +4471,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4515,10 +4500,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4544,10 +4529,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4573,10 +4558,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4602,10 +4587,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4631,10 +4616,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4660,10 +4645,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4689,10 +4674,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4718,10 +4703,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4747,10 +4732,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -4776,10 +4761,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4805,10 +4790,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4834,10 +4819,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4863,10 +4848,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4892,10 +4877,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4921,10 +4906,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
         <v>245</v>
-      </c>
-      <c r="F124" t="s">
-        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4950,10 +4935,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
         <v>247</v>
-      </c>
-      <c r="F125" t="s">
-        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4979,10 +4964,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5008,10 +4993,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5037,10 +5022,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5066,10 +5051,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5095,10 +5080,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5124,10 +5109,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5153,10 +5138,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
         <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5182,10 +5167,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5211,10 +5196,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5240,10 +5225,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>36</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5269,10 +5254,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>58</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5327,10 +5312,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5385,10 +5370,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5414,10 +5399,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5501,10 +5486,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5530,10 +5515,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5559,10 +5544,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5588,10 +5573,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5617,13 +5602,13 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -5646,10 +5631,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5675,10 +5660,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5704,10 +5689,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5733,10 +5718,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5762,10 +5747,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5791,10 +5776,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5820,10 +5805,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5849,10 +5834,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5878,10 +5863,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5907,10 +5892,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5936,10 +5921,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5965,10 +5950,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -5994,10 +5979,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6023,10 +6008,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6052,10 +6037,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6081,10 +6066,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6110,10 +6095,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6139,47 +6124,18 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G166" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H166" t="s">
         <v>4</v>
       </c>
       <c r="I166" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="s">
-        <v>0</v>
-      </c>
-      <c r="C167" t="s">
-        <v>1</v>
-      </c>
-      <c r="D167" t="n">
-        <v>166</v>
-      </c>
-      <c r="E167" t="s">
-        <v>321</v>
-      </c>
-      <c r="F167" t="s">
-        <v>323</v>
-      </c>
-      <c r="G167" t="n">
-        <v>1</v>
-      </c>
-      <c r="H167" t="s">
-        <v>4</v>
-      </c>
-      <c r="I167" t="n">
         <v>3</v>
       </c>
     </row>
